--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-14.55862286463123</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.937502525651917</v>
+        <v>-8.718376652989949</v>
       </c>
       <c r="F2" t="n">
-        <v>6.248770140276976</v>
+        <v>6.854132039072706</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.95061711197079</v>
+        <v>-16.51295770362862</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.81607757502949</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.153460061026189</v>
+        <v>-8.859223646961238</v>
       </c>
       <c r="F3" t="n">
-        <v>6.188702654839137</v>
+        <v>6.805428672501485</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.45511272631999</v>
+        <v>-15.9991895555136</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.961749802919</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.21300385435036</v>
+        <v>-8.896274864003322</v>
       </c>
       <c r="F4" t="n">
-        <v>6.282260250946112</v>
+        <v>6.886653319331554</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.67149912433416</v>
+        <v>-15.13373596846414</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.07574633173496</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.14301558671237</v>
+        <v>-9.894562955684934</v>
       </c>
       <c r="F5" t="n">
-        <v>6.368800372729921</v>
+        <v>6.982436606921621</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.65932009933747</v>
+        <v>-13.97693936627775</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.15656217503653</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.78380525699781</v>
+        <v>-10.53133328899797</v>
       </c>
       <c r="F6" t="n">
-        <v>6.478382947515168</v>
+        <v>7.163712632068161</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.94090616550344</v>
+        <v>-13.18718547425915</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.23772141040988</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.64971707464673</v>
+        <v>-11.41975077523181</v>
       </c>
       <c r="F7" t="n">
-        <v>6.789246586189112</v>
+        <v>7.485416697495054</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.56761524352627</v>
+        <v>-11.68970096752536</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.311392773472654</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.46925595563026</v>
+        <v>-12.19186933532261</v>
       </c>
       <c r="F8" t="n">
-        <v>7.110741174770537</v>
+        <v>7.798113258566839</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.78574291781839</v>
+        <v>-10.89279867815518</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.398249112937634</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.23812762461631</v>
+        <v>-13.01727356797923</v>
       </c>
       <c r="F9" t="n">
-        <v>7.149494391182047</v>
+        <v>7.853572253404391</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.598415065405092</v>
+        <v>-9.462530054210816</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.491302702479318</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30704869012903</v>
+        <v>-14.09314664630091</v>
       </c>
       <c r="F10" t="n">
-        <v>7.347816594628513</v>
+        <v>7.959043845097336</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.905387106781165</v>
+        <v>-8.736640415454156</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.597149344128195</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18526727244917</v>
+        <v>-14.99973624887907</v>
       </c>
       <c r="F11" t="n">
-        <v>7.58588702950246</v>
+        <v>8.203791354420563</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.068644939863608</v>
+        <v>-7.790237119934304</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.724223706389231</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.46349498349257</v>
+        <v>-16.35396477791869</v>
       </c>
       <c r="F12" t="n">
-        <v>7.501441676173326</v>
+        <v>8.093842195155748</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.630628855990822</v>
+        <v>-7.309121175106554</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.869164220911693</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44184349794624</v>
+        <v>-17.40019688260671</v>
       </c>
       <c r="F13" t="n">
-        <v>7.448444034270019</v>
+        <v>8.041132583914958</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.418441903834967</v>
+        <v>-7.167383904542028</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.051893350822674</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.8798627651729</v>
+        <v>-18.84904348428348</v>
       </c>
       <c r="F14" t="n">
-        <v>7.41780804562038</v>
+        <v>7.948177233738703</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.506379718668962</v>
+        <v>-6.160376339167826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.270094845672666</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.98541609403678</v>
+        <v>-19.99264304520541</v>
       </c>
       <c r="F15" t="n">
-        <v>7.453628586195343</v>
+        <v>7.974571316267623</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.062223344763406</v>
+        <v>-5.679587701911119</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.531503402469763</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.93178011264811</v>
+        <v>-20.98183198641202</v>
       </c>
       <c r="F16" t="n">
-        <v>7.375127138356353</v>
+        <v>7.818118297308996</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.439252298645554</v>
+        <v>-5.050554919577549</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.837910997199838</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.03988644056611</v>
+        <v>-22.14961303068262</v>
       </c>
       <c r="F17" t="n">
-        <v>7.706624246308857</v>
+        <v>8.182477085394233</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.55026193444055</v>
+        <v>-5.232655759803117</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.186627182142316</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.91518543935255</v>
+        <v>-23.05506360291356</v>
       </c>
       <c r="F18" t="n">
-        <v>8.146132852705602</v>
+        <v>8.605803605478604</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.930498502518921</v>
+        <v>-4.61768411072156</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.5877908156736913</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.57337478011465</v>
+        <v>-23.67739312619216</v>
       </c>
       <c r="F19" t="n">
-        <v>8.435813145381632</v>
+        <v>8.909204631532763</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.137798842360932</v>
+        <v>-3.730248547200842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.04273150066515125</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.44496865719688</v>
+        <v>-24.60605635136147</v>
       </c>
       <c r="F20" t="n">
-        <v>8.623059260623998</v>
+        <v>9.131250087728437</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.756197491433143</v>
+        <v>-3.402652945495172</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4327719163323414</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.55993216845008</v>
+        <v>-24.61433068675744</v>
       </c>
       <c r="F21" t="n">
-        <v>8.447386741093718</v>
+        <v>8.937536374882258</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.787907048915804</v>
+        <v>-3.393750179562798</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8288452551191859</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.25333980385641</v>
+        <v>-25.28905560600864</v>
       </c>
       <c r="F22" t="n">
-        <v>8.877049935753485</v>
+        <v>9.354002528277565</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.239211820172943</v>
+        <v>-3.917442293231841</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.130819277381817</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.31425828897896</v>
+        <v>-25.36876154570907</v>
       </c>
       <c r="F23" t="n">
-        <v>8.544426889756592</v>
+        <v>8.910513861816936</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.066288684239424</v>
+        <v>-3.802190751316127</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.325069756747439</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.74631737505877</v>
+        <v>-25.79385552667707</v>
       </c>
       <c r="F24" t="n">
-        <v>8.527223603822565</v>
+        <v>8.8767095358796</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.992696849966082</v>
+        <v>-3.721254135148576</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.40628047900219</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.7863667294516</v>
+        <v>-25.74119828464765</v>
       </c>
       <c r="F25" t="n">
-        <v>8.690379881836154</v>
+        <v>9.019939328968082</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.834816769997708</v>
+        <v>-3.597544965597106</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.368552467625405</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.10538687279594</v>
+        <v>-26.09222910844001</v>
       </c>
       <c r="F26" t="n">
-        <v>8.604782405856948</v>
+        <v>8.923344318601828</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.68540740996793</v>
+        <v>-3.41545721767438</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.220325606789519</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.08968920168871</v>
+        <v>-26.08896912503242</v>
       </c>
       <c r="F27" t="n">
-        <v>8.486087588293861</v>
+        <v>8.799307841479315</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.856916577194542</v>
+        <v>-3.610912206798508</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9696165783361023</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.99170640722124</v>
+        <v>-26.00663163246081</v>
       </c>
       <c r="F28" t="n">
-        <v>8.344481240757752</v>
+        <v>8.711903627707951</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.052633412375505</v>
+        <v>-3.893247717580331</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6325389550779595</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.8392334483265</v>
+        <v>-25.77129748888078</v>
       </c>
       <c r="F29" t="n">
-        <v>8.251342598341711</v>
+        <v>8.641545592236517</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.878047553981087</v>
+        <v>-3.713503491866274</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.2225663331969601</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.78148330049164</v>
+        <v>-25.68788642747614</v>
       </c>
       <c r="F30" t="n">
-        <v>8.324633309649695</v>
+        <v>8.749295244623921</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.987263544286766</v>
+        <v>-3.838351691764974</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.2416219248442046</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.4628690185354</v>
+        <v>-25.39203966016166</v>
       </c>
       <c r="F31" t="n">
-        <v>8.187818744953658</v>
+        <v>8.571737433484433</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.405588804685597</v>
+        <v>-4.286802341002617</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.7378360521883517</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.01591089182171</v>
+        <v>-24.93600856757865</v>
       </c>
       <c r="F32" t="n">
-        <v>8.34204607242919</v>
+        <v>8.776396311506295</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.25777670560251</v>
+        <v>-4.15264551378345</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.245995093870042</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.88936069255358</v>
+        <v>-24.82421339361316</v>
       </c>
       <c r="F33" t="n">
-        <v>8.392084853890267</v>
+        <v>8.847173300668665</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.395337531560526</v>
+        <v>-4.288321048132257</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.742968086956103</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.50951371020659</v>
+        <v>-24.45273239278202</v>
       </c>
       <c r="F34" t="n">
-        <v>8.495933000030838</v>
+        <v>8.988020294639954</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.416848185129482</v>
+        <v>-4.298022444537976</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.214736546621845</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.30019397237307</v>
+        <v>-24.2503122985461</v>
       </c>
       <c r="F35" t="n">
-        <v>8.402872911431849</v>
+        <v>8.878332981431974</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.547326075250124</v>
+        <v>-4.457159385579157</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.64575015563085</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.98326859748341</v>
+        <v>-23.95260642422809</v>
       </c>
       <c r="F36" t="n">
-        <v>8.533691201426377</v>
+        <v>9.050889532885924</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.46734519719002</v>
+        <v>-4.314767499872544</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.029116710642682</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.32378311873998</v>
+        <v>-23.2985935280725</v>
       </c>
       <c r="F37" t="n">
-        <v>8.507113826657672</v>
+        <v>8.984694849718156</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.532819803701491</v>
+        <v>-4.420212906959805</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.359729991005657</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.90975213367324</v>
+        <v>-22.85286607782594</v>
       </c>
       <c r="F38" t="n">
-        <v>8.502112566972134</v>
+        <v>9.046411965314054</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.561923992918649</v>
+        <v>-4.435635639707359</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.633513237619721</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.74130656531159</v>
+        <v>-22.69005019968623</v>
       </c>
       <c r="F39" t="n">
-        <v>8.631281226808603</v>
+        <v>9.179534500608723</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.817145344515256</v>
+        <v>-4.727463070049433</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.85448517513678</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.02938641368705</v>
+        <v>-21.9960795952577</v>
       </c>
       <c r="F40" t="n">
-        <v>8.913708383710317</v>
+        <v>9.509696193671372</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.759015519897993</v>
+        <v>-4.642677316846415</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.024073190887171</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.38879312794424</v>
+        <v>-21.31069754149334</v>
       </c>
       <c r="F41" t="n">
-        <v>8.893258206671542</v>
+        <v>9.475341991014682</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.789114724131121</v>
+        <v>-4.681954225371593</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.154035480986749</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.65235109309715</v>
+        <v>-20.62602247208243</v>
       </c>
       <c r="F42" t="n">
-        <v>8.834447582306508</v>
+        <v>9.439128681354468</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.094427226400173</v>
+        <v>-5.02203988398827</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.255965139365854</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.89392708177879</v>
+        <v>-19.72629323619334</v>
       </c>
       <c r="F43" t="n">
-        <v>8.962359381070172</v>
+        <v>9.569475648446693</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.241715633369591</v>
+        <v>-5.169040260295169</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.339815879208573</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.19958989287069</v>
+        <v>-19.07224106312923</v>
       </c>
       <c r="F44" t="n">
-        <v>8.666578075269896</v>
+        <v>9.260471116776275</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.058292470557009</v>
+        <v>-4.946327096654567</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.419160178308819</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.62473305969619</v>
+        <v>-18.5433774898377</v>
       </c>
       <c r="F45" t="n">
-        <v>8.686530744800686</v>
+        <v>9.357668373073249</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.142489070132149</v>
+        <v>-5.073780664818771</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.495807707561534</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.98429688158747</v>
+        <v>-17.94004489798244</v>
       </c>
       <c r="F46" t="n">
-        <v>8.755108227085648</v>
+        <v>9.36162224853145</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.269471315394051</v>
+        <v>-5.197450557461715</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.578805122325027</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.82683575531003</v>
+        <v>-17.82284260294331</v>
       </c>
       <c r="F47" t="n">
-        <v>8.631464519048388</v>
+        <v>9.232741619357498</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.581657276655008</v>
+        <v>-5.532417125667277</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.669889054433079</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.18583660817912</v>
+        <v>-17.13091439775808</v>
       </c>
       <c r="F48" t="n">
-        <v>8.529213633854505</v>
+        <v>9.11313034059549</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.668262859953026</v>
+        <v>-5.618499016851626</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.768495184379251</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.31902142163413</v>
+        <v>-16.22755859398183</v>
       </c>
       <c r="F49" t="n">
-        <v>8.467470333652926</v>
+        <v>9.038635137426068</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.820343049762516</v>
+        <v>-5.788842969125324</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.879639644274108</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.79096957111879</v>
+        <v>-15.65295051456131</v>
       </c>
       <c r="F50" t="n">
-        <v>8.20004695580783</v>
+        <v>8.794777904696078</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.089808826850923</v>
+        <v>-6.062419729306032</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.997525951831218</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.06919091545443</v>
+        <v>-14.92228218526742</v>
       </c>
       <c r="F51" t="n">
-        <v>8.008401826810642</v>
+        <v>8.562572821495225</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.999746875602689</v>
+        <v>-5.973457531496503</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.129804389870432</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.38903269052392</v>
+        <v>-14.20587137376817</v>
       </c>
       <c r="F52" t="n">
-        <v>7.859097205203599</v>
+        <v>8.388864147391203</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.111083818968727</v>
+        <v>-6.068926603818369</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.27354412443819</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.89698467282333</v>
+        <v>-13.72691565890931</v>
       </c>
       <c r="F53" t="n">
-        <v>7.897274360290072</v>
+        <v>8.475639930626164</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.198566586557141</v>
+        <v>-6.100269576821462</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.434722441361092</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.51293506126414</v>
+        <v>-13.31520201144555</v>
       </c>
       <c r="F54" t="n">
-        <v>7.699868618042527</v>
+        <v>8.261528409952575</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.415296567799074</v>
+        <v>-6.334661074596883</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.621715669793744</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.93642859793157</v>
+        <v>-12.73563194924802</v>
       </c>
       <c r="F55" t="n">
-        <v>7.639958240238788</v>
+        <v>8.156763802613083</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.696375217508091</v>
+        <v>-6.721682638901147</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.835631086175255</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.60909484228273</v>
+        <v>-12.39278381473174</v>
       </c>
       <c r="F56" t="n">
-        <v>7.737260234958496</v>
+        <v>8.234374973858834</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.631947995223957</v>
+        <v>-6.62225969112108</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.09224134513238</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.14992159701772</v>
+        <v>-11.94915113293985</v>
       </c>
       <c r="F57" t="n">
-        <v>7.369706924979878</v>
+        <v>7.841213119521801</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.879955487954774</v>
+        <v>-6.859308926373372</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.388054031855487</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.68113860146688</v>
+        <v>-11.47462061644149</v>
       </c>
       <c r="F58" t="n">
-        <v>7.488244634908867</v>
+        <v>8.02180834492057</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.67332285555769</v>
+        <v>-7.736480124466177</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.734409984296131</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.67328321976184</v>
+        <v>-11.54016068446717</v>
       </c>
       <c r="F59" t="n">
-        <v>7.360201913116786</v>
+        <v>7.879259351579857</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.72906988105776</v>
+        <v>-7.715401516890998</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.12919125597919</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.52996178055346</v>
+        <v>-11.36988219370768</v>
       </c>
       <c r="F60" t="n">
-        <v>7.22006190349895</v>
+        <v>7.712280121136483</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.951089152647751</v>
+        <v>-7.972036837194512</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.565421179098744</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.52202784503138</v>
+        <v>-11.42051012879663</v>
       </c>
       <c r="F61" t="n">
-        <v>7.019985331471692</v>
+        <v>7.501206014722175</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.401713124157121</v>
+        <v>-8.441592278613017</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.042956712479636</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.69132441307774</v>
+        <v>-11.58760718996558</v>
       </c>
       <c r="F62" t="n">
-        <v>7.087777275586149</v>
+        <v>7.609269882377783</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.620276027796896</v>
+        <v>-8.724530035325559</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.54078569096715</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.31069189256024</v>
+        <v>-11.2010831331693</v>
       </c>
       <c r="F63" t="n">
-        <v>7.413094816597359</v>
+        <v>7.998399307439565</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.723194620435704</v>
+        <v>-8.777999000131169</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.055740486122907</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.04260080727021</v>
+        <v>-10.84916203278371</v>
       </c>
       <c r="F64" t="n">
-        <v>7.269550808240674</v>
+        <v>7.822176911189931</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.981178447931915</v>
+        <v>-9.078572088771516</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.565731429914965</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.06205596929301</v>
+        <v>-10.84061275902806</v>
       </c>
       <c r="F65" t="n">
-        <v>7.249519584892833</v>
+        <v>7.820736757877341</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.044492824474503</v>
+        <v>-9.130496161841801</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.05772571735745</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.79316625352964</v>
+        <v>-10.50417985290423</v>
       </c>
       <c r="F66" t="n">
-        <v>7.086625152936078</v>
+        <v>7.591516719724401</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.454294995723371</v>
+        <v>-9.587299700292466</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.5202439338318</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.02894553540629</v>
+        <v>-10.73639802840792</v>
       </c>
       <c r="F67" t="n">
-        <v>6.848895117936015</v>
+        <v>7.370492463150383</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.48895032134542</v>
+        <v>-9.594880143637825</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.93077762370242</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.16655873057567</v>
+        <v>-10.95047027217298</v>
       </c>
       <c r="F68" t="n">
-        <v>6.792624400322277</v>
+        <v>7.327575894435205</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.259638637072587</v>
+        <v>-9.491869904879124</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.28882582212474</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.99994608461187</v>
+        <v>-10.76378712595281</v>
       </c>
       <c r="F69" t="n">
-        <v>6.750126785298034</v>
+        <v>7.262454780100459</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.259612452466904</v>
+        <v>-9.426735698241538</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.57586839372268</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.29907901993962</v>
+        <v>-11.03542622531294</v>
       </c>
       <c r="F70" t="n">
-        <v>6.590295952206242</v>
+        <v>7.095632657291185</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.432260650040746</v>
+        <v>-9.634392713614155</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.79461214033344</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.20549523922697</v>
+        <v>-10.99397599451604</v>
       </c>
       <c r="F71" t="n">
-        <v>6.187917116668634</v>
+        <v>6.662120325595952</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.361143261004489</v>
+        <v>-9.566823338648007</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.9427139998538</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.26418803286643</v>
+        <v>-11.000679253571</v>
       </c>
       <c r="F72" t="n">
-        <v>6.471732057671571</v>
+        <v>6.980210915438528</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.708730809149476</v>
+        <v>-9.916269993796517</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.01422080030981</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.6731130198249</v>
+        <v>-11.44854074918077</v>
       </c>
       <c r="F73" t="n">
-        <v>6.628499291898399</v>
+        <v>7.155412112066506</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.361012337976073</v>
+        <v>-9.521628709238367</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.02004952432532</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.83964711197165</v>
+        <v>-11.60848941299814</v>
       </c>
       <c r="F74" t="n">
-        <v>6.539340709546244</v>
+        <v>7.030982865858742</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.461508854589162</v>
+        <v>-9.647838508632608</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.95188788537961</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.36451753289645</v>
+        <v>-12.15272334982585</v>
       </c>
       <c r="F75" t="n">
-        <v>6.492182234710347</v>
+        <v>7.024646191283346</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.640231880681565</v>
+        <v>-9.902025568304719</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.82022435587793</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.24328280858207</v>
+        <v>-11.97282201647769</v>
       </c>
       <c r="F76" t="n">
-        <v>6.378698153678266</v>
+        <v>6.917708261672128</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.697353597980015</v>
+        <v>-9.984598722327485</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.62460248737745</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.93264492241031</v>
+        <v>-12.74284580811381</v>
       </c>
       <c r="F77" t="n">
-        <v>6.348193088057044</v>
+        <v>6.843946227461843</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.40687467483064</v>
+        <v>-9.700770689021706</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.3643948684797</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.61741163794111</v>
+        <v>-13.43880644257428</v>
       </c>
       <c r="F78" t="n">
-        <v>6.365605850836539</v>
+        <v>6.909460110881841</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.794272732563435</v>
+        <v>-9.006813176896015</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.0504589694713</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.84782307565265</v>
+        <v>-13.5991478754769</v>
       </c>
       <c r="F79" t="n">
-        <v>6.548793352197971</v>
+        <v>7.110793543981904</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.01117291374231</v>
+        <v>-9.347632004471828</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.67467873294755</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.4482360839742</v>
+        <v>-14.22448862840911</v>
       </c>
       <c r="F80" t="n">
-        <v>6.549893105636675</v>
+        <v>7.083797215522265</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.40633470706025</v>
+        <v>-8.668691363705598</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.24719436784209</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.99355668193778</v>
+        <v>-14.81067030354171</v>
       </c>
       <c r="F81" t="n">
-        <v>6.636721258083003</v>
+        <v>7.250200384640603</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.207410257683064</v>
+        <v>-8.546291424438301</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.763156329037667</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.84724028873253</v>
+        <v>-15.65575226736944</v>
       </c>
       <c r="F82" t="n">
-        <v>6.725015748447603</v>
+        <v>7.321789096579161</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.138649483158318</v>
+        <v>-8.434208219810284</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.225176460578508</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.80181318122562</v>
+        <v>-16.66008900296393</v>
       </c>
       <c r="F83" t="n">
-        <v>6.847088380143857</v>
+        <v>7.478242115537788</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.994581782687964</v>
+        <v>-8.331538380925469</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.641314769519864</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63977293230745</v>
+        <v>-17.49329624811422</v>
       </c>
       <c r="F84" t="n">
-        <v>6.828471125502923</v>
+        <v>7.462950305818651</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.720638438027688</v>
+        <v>-7.989266307734224</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.00817601423887</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.47298017745774</v>
+        <v>-18.35398423692929</v>
       </c>
       <c r="F85" t="n">
-        <v>6.980786976763564</v>
+        <v>7.608641451841379</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.464552994443526</v>
+        <v>-7.694309817012977</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.345349639228225</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.74985938130844</v>
+        <v>-19.63602180809963</v>
       </c>
       <c r="F86" t="n">
-        <v>6.908438911260186</v>
+        <v>7.477456577367284</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.495280629213058</v>
+        <v>-7.802007100189016</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.659024061125605</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.75621233154056</v>
+        <v>-20.67400576199736</v>
       </c>
       <c r="F87" t="n">
-        <v>6.93053871845702</v>
+        <v>7.618801078846559</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.952395199578044</v>
+        <v>-7.189601542464438</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.970235147082616</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.0719494902255</v>
+        <v>-21.9167926092482</v>
       </c>
       <c r="F88" t="n">
-        <v>7.273059545402257</v>
+        <v>7.960353075381509</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.046607410827106</v>
+        <v>-7.24271701509332</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.299731527872359</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.79109977637255</v>
+        <v>-23.67249660492936</v>
       </c>
       <c r="F89" t="n">
-        <v>7.096077795587804</v>
+        <v>7.789079569606048</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.780728924717332</v>
+        <v>-6.93695937452765</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.66193015309187</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.02830930261283</v>
+        <v>-24.78691342281708</v>
       </c>
       <c r="F90" t="n">
-        <v>7.426946473003905</v>
+        <v>8.14126251604848</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.102878128440844</v>
+        <v>-7.349366914042021</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.085535827784107</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.74117528339584</v>
+        <v>-26.53779945105247</v>
       </c>
       <c r="F91" t="n">
-        <v>7.520216038448361</v>
+        <v>8.194731480854088</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.717362178963378</v>
+        <v>-6.86991369167517</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.57874507057852</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.76033568916105</v>
+        <v>-28.54055520135699</v>
       </c>
       <c r="F92" t="n">
-        <v>7.229069407854057</v>
+        <v>7.882532427290289</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.88910700764114</v>
+        <v>-7.130489795134044</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.158742080770808</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.57652612397097</v>
+        <v>-30.41031933939526</v>
       </c>
       <c r="F93" t="n">
-        <v>7.276803944014991</v>
+        <v>7.927831795122661</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.191719312170918</v>
+        <v>-6.300450887271453</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.826124408620335</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.51328357565035</v>
+        <v>-32.38154882445691</v>
       </c>
       <c r="F94" t="n">
-        <v>7.275573267547868</v>
+        <v>7.881380304640217</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.538010722334572</v>
+        <v>-6.739003755560751</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.576403098082839</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.86483136596129</v>
+        <v>-34.81172898563526</v>
       </c>
       <c r="F95" t="n">
-        <v>7.233808821482762</v>
+        <v>7.918614813922086</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.897993497916794</v>
+        <v>-5.990268048345279</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.40372934397528</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.30377027774076</v>
+        <v>-37.26991358259206</v>
       </c>
       <c r="F96" t="n">
-        <v>6.943683390510112</v>
+        <v>7.621864677711523</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.806229547299136</v>
+        <v>-5.904421818612081</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.28659479304567</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.24649781951597</v>
+        <v>-39.22483005831291</v>
       </c>
       <c r="F97" t="n">
-        <v>6.885003689173496</v>
+        <v>7.579079032024762</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.434656900348108</v>
+        <v>-5.457646984138179</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.215164637875631</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.67209567469971</v>
+        <v>-41.634848073115</v>
       </c>
       <c r="F98" t="n">
-        <v>6.819463621147816</v>
+        <v>7.524510313780448</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.563563714127743</v>
+        <v>-5.612738403601266</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.166023570414452</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.09070224016598</v>
+        <v>-44.09355636218547</v>
       </c>
       <c r="F99" t="n">
-        <v>6.64784971549847</v>
+        <v>7.326397587179449</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.319405358432394</v>
+        <v>-5.375244030052356</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.12956499906201</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.19171572329765</v>
+        <v>-46.21776940595269</v>
       </c>
       <c r="F100" t="n">
-        <v>6.436513763027328</v>
+        <v>7.04530584516759</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.341308781086601</v>
+        <v>-5.387197302546851</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.088939043367875</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.57327107172183</v>
+        <v>-48.65380182650129</v>
       </c>
       <c r="F101" t="n">
-        <v>6.381316614246611</v>
+        <v>7.07025977438392</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.353091853644155</v>
+        <v>-5.359009574528615</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.045522964032047</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.0757469291922</v>
+        <v>-51.18589247299964</v>
       </c>
       <c r="F102" t="n">
-        <v>5.643172580030095</v>
+        <v>6.212425907588345</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.085589921982008</v>
+        <v>-5.03197694184514</v>
       </c>
     </row>
   </sheetData>
